--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -117,6 +117,39 @@
   </si>
   <si>
     <t>* Les période du mardi matin sont obligatoires. Les autres seront réservés aux questions et rencontres</t>
+  </si>
+  <si>
+    <t>tuiles en grid clickable</t>
+  </si>
+  <si>
+    <t>Le lien entre deux tuile de même couleur se créer</t>
+  </si>
+  <si>
+    <t>Les ennemis apparaissent et se déplacent au bonne endroit avec animation</t>
+  </si>
+  <si>
+    <t>Collision et gestion des armures des ennemis avec les liens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création d'un menu fonctionnel (gestion de sons) </t>
+  </si>
+  <si>
+    <t>Création des sons et musique + edit</t>
+  </si>
+  <si>
+    <t>Génération autonome de niveaux</t>
+  </si>
+  <si>
+    <t>Création d'un mode campagne</t>
+  </si>
+  <si>
+    <t>Interface de point</t>
+  </si>
+  <si>
+    <t>Tutoriel interactif</t>
+  </si>
+  <si>
+    <t>Sauvegarde des records personnels</t>
   </si>
 </sst>
 </file>
@@ -1566,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C36"/>
+  <dimension ref="A6:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1625,146 +1658,197 @@
       <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="10">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="11">
-        <f>SUM(C16:C20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="11">
+        <f>SUM(C16:C21)</f>
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
         <v>8</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="11">
-        <f>SUM(C26:C33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="5" t="str">
-        <f>IF(C21+C34&lt;90,"Il manque "&amp;90-(C21+C34)&amp;"h",IF(C21+C34&gt;90,"Il y a "&amp;(C21+C34)-90&amp;"h de trop",""))</f>
-        <v>Il manque 90h</v>
+      <c r="B35" s="19"/>
+      <c r="C35" s="11">
+        <f>SUM(C27:C34)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="str">
+        <f>IF(C22+C35&lt;90,"Il manque "&amp;90-(C22+C35)&amp;"h",IF(C22+C35&gt;90,"Il y a "&amp;(C22+C35)-90&amp;"h de trop",""))</f>
+        <v>Il y a 45h de trop</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
